--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +1009,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1044,28 +1056,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1090,28 +1102,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1327,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1362,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1420,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1674,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1709,28 +1721,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1767,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1980,10 +1992,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2027,28 +2039,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2073,28 +2085,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2240,10 +2252,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2287,28 +2299,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2333,28 +2345,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2500,10 +2512,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2547,28 +2559,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2593,28 +2605,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2818,10 +2830,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2865,28 +2877,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2911,28 +2923,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3309,10 +3321,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3356,28 +3368,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3402,28 +3414,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3656,10 +3668,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3703,28 +3715,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3749,28 +3761,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3887,10 +3899,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3934,28 +3946,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3980,28 +3992,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4147,10 +4159,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4194,28 +4206,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4240,28 +4252,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4552,10 +4564,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4599,28 +4611,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4645,28 +4657,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4870,10 +4882,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4917,28 +4929,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4963,28 +4975,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5159,10 +5171,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5206,28 +5218,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5252,28 +5264,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5448,10 +5460,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5495,28 +5507,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5541,28 +5553,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5650,10 +5662,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5697,28 +5709,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5743,28 +5755,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5852,10 +5864,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5899,28 +5911,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5945,28 +5957,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6025,10 +6037,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6072,28 +6084,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6118,28 +6130,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6227,10 +6239,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
